--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/20/seed3/result_data_RandomForest.xlsx
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.9949</v>
+        <v>12.73779999999999</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.21170000000001</v>
+        <v>11.9327</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.213499999999994</v>
+        <v>-7.450499999999998</v>
       </c>
       <c r="E7" t="n">
-        <v>12.5302</v>
+        <v>12.6415</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.861299999999996</v>
+        <v>5.369799999999998</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>14.05849999999999</v>
+        <v>14.01979999999999</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>10.08879999999999</v>
+        <v>9.741499999999988</v>
       </c>
     </row>
     <row r="10">
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.712200000000003</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.4873</v>
+        <v>11.3371</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.1079</v>
+        <v>6.252100000000002</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>13.00699999999999</v>
+        <v>12.95399999999999</v>
       </c>
     </row>
     <row r="13">
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.5362</v>
+        <v>-12.87999999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.891100000000006</v>
+        <v>4.998100000000004</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.257800000000003</v>
+        <v>-8.068300000000001</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.615999999999996</v>
+        <v>5.745999999999993</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
